--- a/NumberedSystemMessages.xlsx
+++ b/NumberedSystemMessages.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
   <si>
     <t>Parameter is blank, please set a value!</t>
   </si>
@@ -859,6 +859,21 @@
   </si>
   <si>
     <t>[1] cannot be greater than or equal to zero (0)!</t>
+  </si>
+  <si>
+    <t>The operation code '[1]' for '[2]' is invalid!</t>
+  </si>
+  <si>
+    <t>The INSERT ID for '[1]' '[2]' could not be added!</t>
+  </si>
+  <si>
+    <t>The DELETE ID for '[1]' '[2]' could not be added!</t>
+  </si>
+  <si>
+    <t>The INSERT ID '[1]' and DETAIL ID '[2]' could not be deleted or a condition prevents it from deletion!</t>
+  </si>
+  <si>
+    <t>The INSERT ID '[1]' and DETAIL ID '[2]' could not be deleted because a lock condition cannot be applied on a base64 field!</t>
   </si>
 </sst>
 </file>
@@ -1185,10 +1200,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C278"/>
+  <dimension ref="A1:C283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="A279" sqref="A279"/>
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="C289" sqref="C289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4247,12 +4262,67 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278">
+        <v>1000279</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+      <c r="C278" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>1000280</v>
+      </c>
+      <c r="B279">
+        <v>0</v>
+      </c>
+      <c r="C279" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>1000281</v>
+      </c>
+      <c r="B280">
+        <v>0</v>
+      </c>
+      <c r="C280" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>1000282</v>
+      </c>
+      <c r="B281">
+        <v>0</v>
+      </c>
+      <c r="C281" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>1000283</v>
+      </c>
+      <c r="B282">
+        <v>0</v>
+      </c>
+      <c r="C282" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283">
         <v>2000000</v>
       </c>
-      <c r="B278">
-        <v>0</v>
-      </c>
-      <c r="C278" t="s">
+      <c r="B283">
+        <v>0</v>
+      </c>
+      <c r="C283" t="s">
         <v>258</v>
       </c>
     </row>

--- a/NumberedSystemMessages.xlsx
+++ b/NumberedSystemMessages.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="287">
   <si>
     <t>Parameter is blank, please set a value!</t>
   </si>
@@ -144,9 +144,6 @@
     <t>HR Terminations Entry [1]</t>
   </si>
   <si>
-    <t>Employee Advances/Loans Entry [1]</t>
-  </si>
-  <si>
     <t>Not a valid number of periods!</t>
   </si>
   <si>
@@ -531,9 +528,6 @@
     <t>The batch# '[1]' of '[2]' cannot be set 'FOR POST' because it is empty!</t>
   </si>
   <si>
-    <t>Submit To Post Que?</t>
-  </si>
-  <si>
     <t>POST Request acknowledged and scheduled!</t>
   </si>
   <si>
@@ -726,12 +720,6 @@
     <t>The 'PRG_QUE' process token for '[1]' does not exist or has expired!</t>
   </si>
   <si>
-    <t>PROGRAM QUE Request acknowledged and scheduled!</t>
-  </si>
-  <si>
-    <t>Submit To Program Que?</t>
-  </si>
-  <si>
     <t>'[1]' is/are reserved keywords!</t>
   </si>
   <si>
@@ -762,9 +750,6 @@
     <t>The 'IMPORT' process token does not exist or has expired!</t>
   </si>
   <si>
-    <t>Submit To Import Que?</t>
-  </si>
-  <si>
     <t>The '[1]' was already assigned to '[2]' of '[3]'. Do you want to open this document?</t>
   </si>
   <si>
@@ -780,12 +765,6 @@
     <t>The document '[1]' is closed with DayEnd!</t>
   </si>
   <si>
-    <t>Submit To DayEnd Que?</t>
-  </si>
-  <si>
-    <t>DAYEND QUE Request acknowledged and scheduled!</t>
-  </si>
-  <si>
     <t>The 'SET_FOR_DAYEND' process token for '[1]' does not exist or has expired!</t>
   </si>
   <si>
@@ -874,6 +853,33 @@
   </si>
   <si>
     <t>The INSERT ID '[1]' and DETAIL ID '[2]' could not be deleted because a lock condition cannot be applied on a base64 field!</t>
+  </si>
+  <si>
+    <t>The API direct upload of '[1]' is disabled!</t>
+  </si>
+  <si>
+    <t>Employee Advances/Loans Entry '[1]' must be posted!</t>
+  </si>
+  <si>
+    <t>Submit To Post Queue?</t>
+  </si>
+  <si>
+    <t>PROGRAM QUEUE Request acknowledged and scheduled!</t>
+  </si>
+  <si>
+    <t>Submit To Program Queue?</t>
+  </si>
+  <si>
+    <t>Submit To Import Queue?</t>
+  </si>
+  <si>
+    <t>Submit To DayEnd Queue?</t>
+  </si>
+  <si>
+    <t>DAYEND QUEUE Request acknowledged and scheduled!</t>
+  </si>
+  <si>
+    <t>The INSERT ID '[1]' and DETAIL ID '[2]' failed the '[3]' operation on Storage ID '[4]' because the Field ID '[5]' value cannot be blank!</t>
   </si>
 </sst>
 </file>
@@ -1200,10 +1206,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C283"/>
+  <dimension ref="A1:C285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="C289" sqref="C289"/>
+    <sheetView tabSelected="1" topLeftCell="A251" workbookViewId="0">
+      <selection activeCell="C285" sqref="C285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1215,13 +1221,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1683,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>41</v>
+        <v>279</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1694,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1705,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1716,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1727,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1738,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1749,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1760,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1771,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1782,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1793,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1804,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1815,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1826,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1837,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="C57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1848,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1859,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1870,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1881,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="C61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1892,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="C62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1903,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="C63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1914,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="C64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1925,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1936,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="C66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1947,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="C67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1958,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="C68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1969,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="C69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1980,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="C70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1991,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -2002,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="C72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -2013,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="C73" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -2024,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="C74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -2035,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="C75" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -2046,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="C76" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -2057,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="C77" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -2068,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="C78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -2079,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -2090,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="C80" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -2101,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="C81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -2112,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="C82" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -2123,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="C83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -2134,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="C84" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -2145,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="C85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -2156,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -2167,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="C87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -2178,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="C88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -2189,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="C89" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -2200,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="C90" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -2211,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="C91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -2222,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="C92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -2233,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C93" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -2244,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="C94" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -2255,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="C95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -2266,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="C96" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -2277,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="C97" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -2288,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="C98" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -2299,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="C99" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -2310,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="C100" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -2321,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="C101" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -2332,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="C102" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -2343,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="C103" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -2354,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="C104" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -2365,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="C105" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -2376,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="C106" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -2387,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="C107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -2398,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="C108" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -2409,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="C109" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -2420,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="C110" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -2431,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="C111" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -2442,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="C112" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -2453,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="C113" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -2464,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="C114" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -2475,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="C115" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -2486,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="C116" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -2497,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="C117" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -2508,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="C118" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -2519,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="C119" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -2530,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="C120" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -2541,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="C121" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -2552,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="C122" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -2563,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="C123" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -2574,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="C124" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -2585,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="C125" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -2596,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="C126" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -2607,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="C127" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -2618,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="C128" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -2629,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="C129" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -2640,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="C130" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -2651,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="C131" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -2662,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="C132" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -2673,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="C133" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -2684,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="C134" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -2695,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="C135" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -2706,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="C136" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -2717,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="C137" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -2728,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="C138" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -2739,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="C139" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -2750,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="C140" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -2761,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="C141" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -2772,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="C142" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -2783,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="C143" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -2794,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="C144" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -2805,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="C145" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -2816,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="C146" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -2827,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="C147" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -2838,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="C148" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -2849,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="C149" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -2860,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="C150" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -2871,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="C151" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -2882,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="C152" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -2893,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="C153" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -2904,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="C154" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -2915,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="C155" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -2926,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="C156" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -2937,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="C157" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -2948,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="C158" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -2959,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="C159" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -2970,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="C160" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -2981,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="C161" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -2992,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="C162" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -3003,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="C163" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -3014,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="C164" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -3025,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C165" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -3036,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="C166" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -3047,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="C167" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -3058,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="C168" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -3069,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="C169" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -3080,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="C170" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -3091,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="C171" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -3102,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="C172" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -3113,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="C173" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -3124,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="C174" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -3135,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="C175" t="s">
-        <v>170</v>
+        <v>280</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -3146,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="C176" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -3157,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="C177" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -3168,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="C178" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -3179,7 +3185,7 @@
         <v>0</v>
       </c>
       <c r="C179" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -3190,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="C180" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -3201,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="C181" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -3212,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="C182" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -3223,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="C183" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -3234,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="C184" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -3245,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="C185" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -3256,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="C186" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -3267,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="C187" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -3278,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="C188" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -3289,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="C189" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -3300,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="C190" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -3311,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="C191" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -3322,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="C192" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -3333,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="C193" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -3344,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="C194" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -3355,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="C195" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -3366,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="C196" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -3377,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="C197" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -3388,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="C198" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -3399,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="C199" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -3410,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="C200" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -3421,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="C201" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -3432,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="C202" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -3443,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="C203" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -3454,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="C204" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -3465,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="C205" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -3476,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="C206" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -3487,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="C207" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -3498,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="C208" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -3509,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="C209" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -3520,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="C210" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -3531,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="C211" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -3542,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="C212" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -3553,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="C213" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -3564,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="C214" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -3575,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="C215" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -3586,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="C216" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -3597,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="C217" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -3608,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="C218" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -3619,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="C219" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -3630,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="C220" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -3641,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="C221" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -3652,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="C222" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -3663,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="C223" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -3674,7 +3680,7 @@
         <v>0</v>
       </c>
       <c r="C224" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -3685,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="C225" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -3696,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="C226" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -3707,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="C227" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -3718,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="C228" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -3729,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="C229" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -3740,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="C230" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -3751,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="C231" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -3762,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="C232" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -3773,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="C233" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -3784,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="C234" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -3795,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="C235" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -3806,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="C236" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -3817,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="C237" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -3828,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="C238" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -3839,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="C239" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -3850,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="C240" t="s">
-        <v>235</v>
+        <v>281</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -3861,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="C241" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -3872,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="C242" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -3883,7 +3889,7 @@
         <v>0</v>
       </c>
       <c r="C243" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -3894,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C244" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -3905,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="C245" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -3916,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="C246" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -3927,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="C247" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -3938,7 +3944,7 @@
         <v>0</v>
       </c>
       <c r="C248" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -3949,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="C249" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -3960,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="C250" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -3971,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="C251" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -3982,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="C252" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -3993,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="C253" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -4004,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="C254" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -4015,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="C255" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -4026,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="C256" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -4037,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="C257" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -4048,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="C258" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -4059,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="C259" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -4070,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="C260" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -4081,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="C261" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -4092,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="C262" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -4103,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="C263" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -4114,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="C264" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -4125,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="C265" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -4136,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="C266" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -4147,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="C267" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -4158,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="C268" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -4169,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="C269" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -4180,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="C270" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -4191,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="C271" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -4202,7 +4208,7 @@
         <v>0</v>
       </c>
       <c r="C272" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -4213,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="C273" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -4224,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="C274" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -4235,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="C275" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -4246,7 +4252,7 @@
         <v>0</v>
       </c>
       <c r="C276" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -4257,73 +4263,95 @@
         <v>0</v>
       </c>
       <c r="C277" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>1000279</v>
+        <v>1000278</v>
       </c>
       <c r="B278">
         <v>0</v>
       </c>
       <c r="C278" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>1000280</v>
+        <v>1000279</v>
       </c>
       <c r="B279">
         <v>0</v>
       </c>
       <c r="C279" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>1000281</v>
+        <v>1000280</v>
       </c>
       <c r="B280">
         <v>0</v>
       </c>
       <c r="C280" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>1000282</v>
+        <v>1000281</v>
       </c>
       <c r="B281">
         <v>0</v>
       </c>
       <c r="C281" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>1000283</v>
+        <v>1000282</v>
       </c>
       <c r="B282">
         <v>0</v>
       </c>
       <c r="C282" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283">
+        <v>1000283</v>
+      </c>
+      <c r="B283">
+        <v>0</v>
+      </c>
+      <c r="C283" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>1000284</v>
+      </c>
+      <c r="B284">
+        <v>0</v>
+      </c>
+      <c r="C284" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285">
         <v>2000000</v>
       </c>
-      <c r="B283">
-        <v>0</v>
-      </c>
-      <c r="C283" t="s">
-        <v>258</v>
+      <c r="B285">
+        <v>0</v>
+      </c>
+      <c r="C285" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
